--- a/黑金EP4CE15F17C8管脚分配.xlsx
+++ b/黑金EP4CE15F17C8管脚分配.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="8388" windowHeight="5376" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="8388" windowHeight="5376"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="led&amp;key" sheetId="1" r:id="rId1"/>
+    <sheet name="数码管" sheetId="2" r:id="rId2"/>
     <sheet name="VGA 对应的引脚" sheetId="3" r:id="rId3"/>
     <sheet name="RS232" sheetId="6" r:id="rId4"/>
     <sheet name="QC12864" sheetId="5" r:id="rId5"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="150">
   <si>
     <t>clk</t>
   </si>
@@ -242,10 +242,6 @@
   </si>
   <si>
     <t>SEL0</t>
-  </si>
-  <si>
-    <t>共阳极数码管段选低有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PIN_E6 -to VGA_G</t>
@@ -650,18 +646,27 @@
     <t>分辨率 1920*1080,60Hz</t>
   </si>
   <si>
+    <t>rs232_tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rst_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rs232_rx</t>
-  </si>
-  <si>
-    <t>rs232_tx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共阳极数码管段选低有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +674,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +764,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1047,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,6 +1125,72 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1131,80 +1209,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="A2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1744,13 +1759,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1760,10 +1775,10 @@
         <v>20</v>
       </c>
       <c r="N2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" t="s">
         <v>142</v>
-      </c>
-      <c r="O2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1862,7 +1877,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1871,13 +1886,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2008,13 +2023,13 @@
       <c r="E9" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2044,68 +2059,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="11">
         <v>33</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="11">
         <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="11">
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="11">
         <v>36</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="11">
         <v>35</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2128,7 +2143,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2143,45 +2158,45 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.88671875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="21"/>
+    <col min="2" max="2" width="11.21875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A4" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>145</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -2209,61 +2224,61 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="C3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="53">
+      <c r="F3" s="43">
         <v>2</v>
       </c>
     </row>
@@ -2272,278 +2287,278 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="53">
         <v>4</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="D5" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
+        <v>5</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="C7" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E7" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F7" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>6</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>7</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="s">
+      <c r="B11" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>9</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
-        <v>5</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="48">
+      <c r="E12" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+      <c r="B13" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
+        <v>11</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>12</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>14</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>15</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
-        <v>6</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="52">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
-        <v>7</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
-        <v>8</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="39">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
-        <v>9</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
-        <v>10</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
-        <v>11</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="39">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
-        <v>12</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="39">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
-        <v>13</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="39">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
-        <v>14</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="43" t="s">
+      <c r="E18" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="44">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
-        <v>15</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="30">
+      <c r="F18" s="24">
         <v>30</v>
       </c>
     </row>
@@ -2552,38 +2567,38 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>17</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
-        <v>17</v>
-      </c>
-      <c r="B20" s="31" t="s">
+      <c r="C20" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="30">
+      <c r="E20" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="24">
         <v>34</v>
       </c>
     </row>
@@ -2592,19 +2607,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>103</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -2612,19 +2627,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -2632,47 +2647,47 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>110</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" s="14"/>
     </row>
     <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2702,7 +2717,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2712,26 +2727,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>